--- a/data/trans_orig/IP07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C0358A-F7DD-4DA7-9240-FBFF644AB162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCE1B2A-021F-4DA5-AEB1-A6858C56F850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70F7433E-8CD4-4F28-AE0F-85D9F0D0CAA6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1DECF3B7-3736-479C-A9C8-6B6008F33A47}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
     <t>Buena</t>
   </si>
   <si>
@@ -101,34 +161,34 @@
     <t>21,69%</t>
   </si>
   <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>Mala</t>
@@ -155,72 +215,186 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
     <t>19,51%</t>
   </si>
   <si>
@@ -248,28 +422,31 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -290,181 +467,55 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>19,79%</t>
@@ -494,31 +545,28 @@
     <t>21,9%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -539,57 +587,63 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
     <t>Menores según salud general percibida por adulto en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
     <t>23,16%</t>
   </si>
   <si>
@@ -614,31 +668,31 @@
     <t>25,64%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -653,58 +707,160 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
   <si>
     <t>22,11%</t>
@@ -734,31 +890,22 @@
     <t>25,6%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -779,151 +926,52 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>22,78%</t>
@@ -950,25 +998,28 @@
     <t>24,51%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -992,60 +1043,63 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
     <t>Menores según salud general percibida por adulto en 2015 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
     <t>9,84%</t>
   </si>
   <si>
@@ -1073,31 +1127,28 @@
     <t>13,5%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -1112,55 +1163,151 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>11,95%</t>
@@ -1187,31 +1334,22 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -1226,142 +1364,55 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>12,01%</t>
@@ -1388,28 +1439,16 @@
     <t>12,83%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -1424,48 +1463,57 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>Menores según salud general percibida por adulto en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
     <t>16,03%</t>
   </si>
   <si>
@@ -1493,28 +1541,25 @@
     <t>22,84%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -1523,49 +1568,157 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>23,43%</t>
@@ -1592,31 +1745,28 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -1628,154 +1778,52 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
   </si>
   <si>
     <t>21,54%</t>
@@ -1799,28 +1847,25 @@
     <t>23,36%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -1830,51 +1875,6 @@
   </si>
   <si>
     <t>0,07%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D73FC54-E123-4B80-AAEA-1644D27484CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170207CA-80ED-454E-9F7E-86EFD0882CB2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2384,10 +2384,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7">
-        <v>42169</v>
+        <v>67581</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2399,10 +2399,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I4" s="7">
-        <v>38114</v>
+        <v>66186</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2414,10 +2414,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>80284</v>
+        <v>133768</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2435,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>67581</v>
+        <v>105159</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2450,10 +2450,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>66186</v>
+        <v>104118</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2465,10 +2465,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="N5" s="7">
-        <v>133768</v>
+        <v>209278</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2486,10 +2486,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7">
-        <v>673</v>
+        <v>42169</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2501,133 +2501,133 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>38114</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="N6" s="7">
-        <v>673</v>
+        <v>80284</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>105159</v>
+        <v>6079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>104118</v>
+        <v>1777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>209278</v>
+        <v>7856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>6079</v>
+        <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1777</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>7856</v>
+        <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>57</v>
@@ -2692,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>54658</v>
+        <v>64693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2707,10 +2707,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>55275</v>
+        <v>60981</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2719,22 +2719,22 @@
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="7">
+        <v>189</v>
+      </c>
+      <c r="N10" s="7">
+        <v>125674</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>165</v>
-      </c>
-      <c r="N10" s="7">
-        <v>109933</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7">
-        <v>76084</v>
+        <v>99633</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>138</v>
+      </c>
+      <c r="I11" s="7">
+        <v>94833</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>76451</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>289</v>
+      </c>
+      <c r="N11" s="7">
+        <v>194466</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="7">
-        <v>231</v>
-      </c>
-      <c r="N11" s="7">
-        <v>152535</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,151 +2794,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>667</v>
+        <v>45625</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="I12" s="7">
-        <v>1272</v>
+        <v>47515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="N12" s="7">
-        <v>1939</v>
+        <v>93140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>138874</v>
+        <v>5470</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>125902</v>
+        <v>1893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>264775</v>
+        <v>7363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>9904</v>
+        <v>2621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>6703</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>16607</v>
+        <v>2621</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7">
-        <v>280187</v>
+        <v>218041</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2962,10 +2962,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2977,10 +2977,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>814</v>
+        <v>634</v>
       </c>
       <c r="N15" s="7">
-        <v>545790</v>
+        <v>423263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2994,55 +2994,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>45625</v>
+        <v>76084</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>115</v>
+      </c>
+      <c r="I16" s="7">
+        <v>76451</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="7">
-        <v>72</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47515</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>231</v>
+      </c>
+      <c r="N16" s="7">
+        <v>152535</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="7">
-        <v>141</v>
-      </c>
-      <c r="N16" s="7">
-        <v>93140</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,49 +3051,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>64693</v>
+        <v>138874</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>184</v>
+      </c>
+      <c r="I17" s="7">
+        <v>125902</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="7">
-        <v>91</v>
-      </c>
-      <c r="I17" s="7">
-        <v>60981</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>390</v>
+      </c>
+      <c r="N17" s="7">
+        <v>264775</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="7">
-        <v>189</v>
-      </c>
-      <c r="N17" s="7">
-        <v>125674</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,142 +3102,142 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>2621</v>
+        <v>54658</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>83</v>
+      </c>
+      <c r="I18" s="7">
+        <v>55275</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="N18" s="7">
-        <v>2621</v>
+        <v>109933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>99633</v>
+        <v>9904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>94833</v>
+        <v>6703</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>194466</v>
+        <v>16607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>5470</v>
+        <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1272</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="I20" s="7">
-        <v>1893</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
       <c r="N20" s="7">
-        <v>7363</v>
+        <v>1939</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -3255,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="D21" s="7">
-        <v>218041</v>
+        <v>280187</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -3270,10 +3270,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -3285,10 +3285,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>634</v>
+        <v>814</v>
       </c>
       <c r="N21" s="7">
-        <v>423263</v>
+        <v>545790</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -3308,10 +3308,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="D22" s="7">
-        <v>142452</v>
+        <v>208359</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>142</v>
@@ -3323,10 +3323,10 @@
         <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="I22" s="7">
-        <v>140905</v>
+        <v>203618</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
@@ -3338,10 +3338,10 @@
         <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>427</v>
+        <v>623</v>
       </c>
       <c r="N22" s="7">
-        <v>283357</v>
+        <v>411977</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3359,10 +3359,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>316</v>
+        <v>514</v>
       </c>
       <c r="D23" s="7">
-        <v>208359</v>
+        <v>343665</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>151</v>
@@ -3374,10 +3374,10 @@
         <v>153</v>
       </c>
       <c r="H23" s="7">
-        <v>307</v>
+        <v>480</v>
       </c>
       <c r="I23" s="7">
-        <v>203618</v>
+        <v>324853</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>154</v>
@@ -3389,19 +3389,19 @@
         <v>156</v>
       </c>
       <c r="M23" s="7">
-        <v>623</v>
+        <v>994</v>
       </c>
       <c r="N23" s="7">
-        <v>411977</v>
+        <v>668519</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,148 +3410,148 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="D24" s="7">
-        <v>3961</v>
+        <v>142452</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>213</v>
+      </c>
+      <c r="I24" s="7">
+        <v>140905</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1272</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>427</v>
       </c>
       <c r="N24" s="7">
-        <v>5233</v>
+        <v>283357</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>514</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>343665</v>
+        <v>21453</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>324853</v>
+        <v>10373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
-        <v>994</v>
+        <v>48</v>
       </c>
       <c r="N25" s="7">
-        <v>668519</v>
+        <v>31825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>21453</v>
+        <v>3961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>10373</v>
+        <v>1272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5233</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M26" s="7">
-        <v>48</v>
-      </c>
-      <c r="N26" s="7">
-        <v>31825</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>181</v>
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C60A0-8F86-47BD-91D3-5A84D5EE5955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0A02F3-D41E-49B4-90CC-B151FE9A7F99}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3742,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7">
-        <v>55226</v>
+        <v>63327</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="7">
+        <v>94</v>
+      </c>
+      <c r="I4" s="7">
+        <v>62746</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="7">
         <v>184</v>
       </c>
-      <c r="H4" s="7">
-        <v>71</v>
-      </c>
-      <c r="I4" s="7">
-        <v>47609</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="7">
-        <v>149</v>
-      </c>
       <c r="N4" s="7">
-        <v>102835</v>
+        <v>126073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>63327</v>
+        <v>114131</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>62746</v>
+        <v>108020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="N5" s="7">
-        <v>126073</v>
+        <v>222151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,148 +3844,148 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>670</v>
+        <v>55226</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>47609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N6" s="7">
-        <v>670</v>
+        <v>102835</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>114131</v>
+        <v>5096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>108020</v>
+        <v>7133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>222151</v>
+        <v>12228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5096</v>
+        <v>670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7133</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>12228</v>
+        <v>670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>221</v>
@@ -4050,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>60222</v>
+        <v>57990</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>222</v>
@@ -4065,10 +4065,10 @@
         <v>224</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>58990</v>
+        <v>54097</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>225</v>
@@ -4080,10 +4080,10 @@
         <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N10" s="7">
-        <v>119212</v>
+        <v>112086</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>228</v>
@@ -4092,7 +4092,7 @@
         <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,49 +4101,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>68249</v>
+        <v>120918</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>164</v>
+      </c>
+      <c r="I11" s="7">
+        <v>117660</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="7">
-        <v>94</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63165</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>333</v>
+      </c>
+      <c r="N11" s="7">
+        <v>238578</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M11" s="7">
-        <v>196</v>
-      </c>
-      <c r="N11" s="7">
-        <v>131414</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,79 +4152,79 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>2134</v>
+        <v>55356</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>73</v>
+      </c>
+      <c r="I12" s="7">
+        <v>52313</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>768</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>243</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>2902</v>
+        <v>107669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>135701</v>
+        <v>4127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>127951</v>
+        <v>3918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>250</v>
@@ -4233,70 +4233,70 @@
         <v>251</v>
       </c>
       <c r="M13" s="7">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>263652</v>
+        <v>8044</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>6047</v>
+        <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>654</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4801</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M14" s="7">
-        <v>16</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10848</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>272352</v>
+        <v>239045</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -4320,10 +4320,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>255675</v>
+        <v>227987</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -4335,10 +4335,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>765</v>
+        <v>650</v>
       </c>
       <c r="N15" s="7">
-        <v>528027</v>
+        <v>467032</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -4352,55 +4352,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>55356</v>
+        <v>68249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7">
+        <v>94</v>
+      </c>
+      <c r="I16" s="7">
+        <v>63165</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>196</v>
+      </c>
+      <c r="N16" s="7">
+        <v>131414</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7">
-        <v>52313</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M16" s="7">
-        <v>147</v>
-      </c>
-      <c r="N16" s="7">
-        <v>107669</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4409,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="D17" s="7">
-        <v>57990</v>
+        <v>135701</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="7">
+        <v>178</v>
+      </c>
+      <c r="I17" s="7">
+        <v>127951</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>377</v>
+      </c>
+      <c r="N17" s="7">
+        <v>263652</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H17" s="7">
-        <v>77</v>
-      </c>
-      <c r="I17" s="7">
-        <v>54097</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M17" s="7">
-        <v>158</v>
-      </c>
-      <c r="N17" s="7">
-        <v>112086</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,97 +4460,97 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7">
-        <v>654</v>
+        <v>60222</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="7">
+        <v>84</v>
+      </c>
+      <c r="I18" s="7">
+        <v>58990</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="N18" s="7">
-        <v>654</v>
+        <v>119212</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>120918</v>
+        <v>6047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>117660</v>
+        <v>4801</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>238578</v>
+        <v>10848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>288</v>
@@ -4559,13 +4559,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>4127</v>
+        <v>2134</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>289</v>
@@ -4577,31 +4577,31 @@
         <v>291</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>3918</v>
+        <v>768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2902</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8044</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>294</v>
@@ -4613,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="D21" s="7">
-        <v>239045</v>
+        <v>272352</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -4628,10 +4628,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>227987</v>
+        <v>255675</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4643,10 +4643,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="N21" s="7">
-        <v>467032</v>
+        <v>528027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -4666,10 +4666,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D22" s="7">
-        <v>170804</v>
+        <v>189565</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>295</v>
@@ -4678,37 +4678,37 @@
         <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="7">
+        <v>265</v>
+      </c>
+      <c r="I22" s="7">
+        <v>180008</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H22" s="7">
-        <v>228</v>
-      </c>
-      <c r="I22" s="7">
-        <v>158912</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>538</v>
+      </c>
+      <c r="N22" s="7">
+        <v>369573</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M22" s="7">
-        <v>468</v>
-      </c>
-      <c r="N22" s="7">
-        <v>329716</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,25 +4717,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>273</v>
+        <v>528</v>
       </c>
       <c r="D23" s="7">
-        <v>189565</v>
+        <v>370751</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="H23" s="7">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="I23" s="7">
-        <v>180008</v>
+        <v>353631</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>305</v>
@@ -4747,19 +4747,19 @@
         <v>307</v>
       </c>
       <c r="M23" s="7">
-        <v>538</v>
+        <v>1033</v>
       </c>
       <c r="N23" s="7">
-        <v>369573</v>
+        <v>724382</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>308</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,142 +4768,142 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="D24" s="7">
-        <v>3457</v>
+        <v>170804</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="I24" s="7">
-        <v>768</v>
+        <v>158912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="N24" s="7">
-        <v>4225</v>
+        <v>329716</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>528</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>370751</v>
+        <v>15269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
-        <v>505</v>
+        <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>353631</v>
+        <v>15852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
-        <v>1033</v>
+        <v>46</v>
       </c>
       <c r="N25" s="7">
-        <v>724382</v>
+        <v>31120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>15269</v>
+        <v>3457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>15852</v>
+        <v>768</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>330</v>
       </c>
       <c r="M26" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>31120</v>
+        <v>4225</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>331</v>
@@ -4982,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866C87B-C311-4551-9592-460C725821B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B76A2A8-99E1-42C8-8897-6C8AA9B75DC1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5100,10 +5100,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>20847</v>
+        <v>113718</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>335</v>
@@ -5115,10 +5115,10 @@
         <v>337</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="I4" s="7">
-        <v>23987</v>
+        <v>105259</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>338</v>
@@ -5130,10 +5130,10 @@
         <v>340</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="N4" s="7">
-        <v>44834</v>
+        <v>218977</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>341</v>
@@ -5151,10 +5151,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>113718</v>
+        <v>70757</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>344</v>
@@ -5166,10 +5166,10 @@
         <v>346</v>
       </c>
       <c r="H5" s="7">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>105259</v>
+        <v>64041</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>347</v>
@@ -5181,10 +5181,10 @@
         <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>218977</v>
+        <v>134798</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>350</v>
@@ -5202,151 +5202,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>795</v>
+        <v>20847</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>670</v>
+        <v>23987</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>1465</v>
+        <v>44834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>70757</v>
+        <v>5634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H7" s="7">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>64041</v>
+        <v>5434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>134798</v>
+        <v>11068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5634</v>
+        <v>795</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>5434</v>
+        <v>670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>11068</v>
+        <v>1465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +5408,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>33488</v>
+        <v>116947</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>374</v>
@@ -5420,37 +5420,37 @@
         <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7">
+        <v>175</v>
+      </c>
+      <c r="I10" s="7">
+        <v>114353</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="7">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30513</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="7">
+        <v>344</v>
+      </c>
+      <c r="N10" s="7">
+        <v>231300</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M10" s="7">
-        <v>88</v>
-      </c>
-      <c r="N10" s="7">
-        <v>64001</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5459,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>132736</v>
+        <v>97104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>145</v>
+      </c>
+      <c r="I11" s="7">
+        <v>94957</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H11" s="7">
-        <v>176</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127005</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>286</v>
+      </c>
+      <c r="N11" s="7">
+        <v>192061</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M11" s="7">
-        <v>353</v>
-      </c>
-      <c r="N11" s="7">
-        <v>259742</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,151 +5510,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>790</v>
+        <v>34754</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>874</v>
+        <v>21747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>394</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>1664</v>
+        <v>56501</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>397</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>106175</v>
+        <v>1246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>104512</v>
+        <v>2320</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>210687</v>
+        <v>3566</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>7034</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>405</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>11134</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D15" s="7">
-        <v>280223</v>
+        <v>250052</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -5678,10 +5678,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>267005</v>
+        <v>233376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -5693,10 +5693,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="N15" s="7">
-        <v>547228</v>
+        <v>483428</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -5710,55 +5710,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="D16" s="7">
-        <v>34754</v>
+        <v>132736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="7">
+        <v>176</v>
+      </c>
+      <c r="I16" s="7">
+        <v>127005</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>353</v>
+      </c>
+      <c r="N16" s="7">
+        <v>259742</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21747</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M16" s="7">
-        <v>84</v>
-      </c>
-      <c r="N16" s="7">
-        <v>56501</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,49 +5767,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D17" s="7">
-        <v>116947</v>
+        <v>106175</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="7">
+        <v>148</v>
+      </c>
+      <c r="I17" s="7">
+        <v>104512</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="7">
-        <v>175</v>
-      </c>
-      <c r="I17" s="7">
-        <v>114353</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>295</v>
+      </c>
+      <c r="N17" s="7">
+        <v>210687</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="7">
-        <v>344</v>
-      </c>
-      <c r="N17" s="7">
-        <v>231300</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,148 +5818,148 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>33488</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>425</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>30513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>64001</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>97104</v>
+        <v>7034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>94957</v>
+        <v>4100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>192061</v>
+        <v>11134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>790</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>874</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>1246</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2320</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
       <c r="N20" s="7">
-        <v>3566</v>
+        <v>1664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>440</v>
@@ -5971,10 +5971,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>250052</v>
+        <v>280223</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -5986,10 +5986,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>233376</v>
+        <v>267005</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -6001,10 +6001,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>483428</v>
+        <v>547228</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -6024,10 +6024,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>125</v>
+        <v>519</v>
       </c>
       <c r="D22" s="7">
-        <v>89089</v>
+        <v>363401</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>441</v>
@@ -6039,13 +6039,13 @@
         <v>443</v>
       </c>
       <c r="H22" s="7">
-        <v>116</v>
+        <v>520</v>
       </c>
       <c r="I22" s="7">
-        <v>76247</v>
+        <v>346618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>24</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>444</v>
@@ -6054,10 +6054,10 @@
         <v>445</v>
       </c>
       <c r="M22" s="7">
-        <v>241</v>
+        <v>1039</v>
       </c>
       <c r="N22" s="7">
-        <v>165336</v>
+        <v>710018</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>446</v>
@@ -6075,10 +6075,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>519</v>
+        <v>395</v>
       </c>
       <c r="D23" s="7">
-        <v>363401</v>
+        <v>274036</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>449</v>
@@ -6090,34 +6090,34 @@
         <v>451</v>
       </c>
       <c r="H23" s="7">
-        <v>520</v>
+        <v>398</v>
       </c>
       <c r="I23" s="7">
-        <v>346618</v>
+        <v>263510</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
-        <v>1039</v>
+        <v>793</v>
       </c>
       <c r="N23" s="7">
-        <v>710018</v>
+        <v>537546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,97 +6126,97 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D24" s="7">
-        <v>1585</v>
+        <v>89089</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="I24" s="7">
-        <v>1545</v>
+        <v>76247</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="N24" s="7">
-        <v>3130</v>
+        <v>165336</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13914</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" s="7">
+        <v>18</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11854</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>395</v>
-      </c>
-      <c r="D25" s="7">
-        <v>274036</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H25" s="7">
-        <v>398</v>
-      </c>
-      <c r="I25" s="7">
-        <v>263510</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="M25" s="7">
-        <v>793</v>
-      </c>
       <c r="N25" s="7">
-        <v>537546</v>
+        <v>25767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>469</v>
@@ -6225,52 +6225,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>13914</v>
+        <v>1585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>470</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>11854</v>
+        <v>1545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3130</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M26" s="7">
-        <v>38</v>
-      </c>
-      <c r="N26" s="7">
-        <v>25767</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,7 +6340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CA837-9A8D-4854-B53D-28E1A1781310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224C2D1-57A2-48D4-A091-C52AC2F576BC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6458,10 +6458,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>18903</v>
+        <v>41800</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>475</v>
@@ -6470,37 +6470,37 @@
         <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="7">
+        <v>68</v>
+      </c>
+      <c r="I4" s="7">
+        <v>34065</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H4" s="7">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7">
-        <v>23125</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>149</v>
+      </c>
+      <c r="N4" s="7">
+        <v>75865</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="M4" s="7">
-        <v>83</v>
-      </c>
-      <c r="N4" s="7">
-        <v>42028</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,25 +6509,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>41800</v>
+        <v>52772</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H5" s="7">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>34065</v>
+        <v>45354</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>486</v>
@@ -6539,19 +6539,19 @@
         <v>488</v>
       </c>
       <c r="M5" s="7">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="N5" s="7">
-        <v>75865</v>
+        <v>98126</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,148 +6560,148 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>18903</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>492</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>23125</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>495</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>42028</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>497</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>498</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>52772</v>
+        <v>4463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>45354</v>
+        <v>1259</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>98126</v>
+        <v>5722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4463</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>5722</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>508</v>
@@ -6766,10 +6766,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>94340</v>
+        <v>71551</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>509</v>
@@ -6781,10 +6781,10 @@
         <v>511</v>
       </c>
       <c r="H10" s="7">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>72447</v>
+        <v>61327</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>512</v>
@@ -6796,19 +6796,19 @@
         <v>514</v>
       </c>
       <c r="M10" s="7">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="N10" s="7">
-        <v>166787</v>
+        <v>132878</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,49 +6817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>112754</v>
+        <v>85136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>126015</v>
+        <v>93696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="N11" s="7">
-        <v>238770</v>
+        <v>178833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,151 +6868,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>43096</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>527</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>528</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>993</v>
+        <v>39110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>993</v>
+        <v>82207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>188098</v>
+        <v>5272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>538</v>
       </c>
       <c r="H13" s="7">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>140898</v>
+        <v>4134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
-        <v>410</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>328996</v>
+        <v>9405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>7518</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>11288</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>18805</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,10 +7021,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -7036,10 +7036,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -7051,10 +7051,10 @@
         <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N15" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -7068,55 +7068,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>43096</v>
+        <v>112754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="I16" s="7">
-        <v>39110</v>
+        <v>126015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="N16" s="7">
-        <v>82207</v>
+        <v>238770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,49 +7125,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="D17" s="7">
-        <v>71551</v>
+        <v>188098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="I17" s="7">
-        <v>61327</v>
+        <v>140898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
-        <v>177</v>
+        <v>410</v>
       </c>
       <c r="N17" s="7">
-        <v>132878</v>
+        <v>328996</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,148 +7176,148 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>94340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>560</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>561</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>72447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>564</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>166787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>85136</v>
+        <v>7518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>93696</v>
+        <v>11288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M19" s="7">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>178833</v>
+        <v>18805</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>5272</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>4134</v>
+        <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>577</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>9405</v>
+        <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>578</v>
@@ -7329,10 +7329,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D21" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -7344,10 +7344,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I21" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -7359,10 +7359,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N21" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7382,49 +7382,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D22" s="7">
-        <v>156340</v>
+        <v>226105</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="I22" s="7">
-        <v>134682</v>
+        <v>221408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
-        <v>413</v>
+        <v>618</v>
       </c>
       <c r="N22" s="7">
-        <v>291022</v>
+        <v>447513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,25 +7433,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>310</v>
+        <v>439</v>
       </c>
       <c r="D23" s="7">
-        <v>226105</v>
+        <v>326007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
       <c r="H23" s="7">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="I23" s="7">
-        <v>221408</v>
+        <v>279949</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>589</v>
@@ -7460,22 +7460,22 @@
         <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="N23" s="7">
-        <v>447513</v>
+        <v>605955</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,151 +7484,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>156340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>595</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>34</v>
+        <v>497</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I24" s="7">
-        <v>993</v>
+        <v>134682</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>598</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="N24" s="7">
-        <v>993</v>
+        <v>291022</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>326007</v>
+        <v>17252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="H25" s="7">
-        <v>404</v>
+        <v>21</v>
       </c>
       <c r="I25" s="7">
-        <v>279949</v>
+        <v>16681</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
-        <v>843</v>
+        <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>605955</v>
+        <v>33933</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>17252</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>16681</v>
+        <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>608</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>33933</v>
+        <v>993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>610</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>611</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A690BC-CFB5-4D70-A7CD-42617CA45F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA84C645-B7DF-43FF-A242-8C141BB79157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0423D10D-D715-40D3-BBEA-B28976B17CA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E26AA57-630F-4858-BA87-FBF368420B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="739">
   <si>
     <t>Menores según salud general percibida por adulto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -95,2158 +95,2167 @@
     <t>2,19%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>54,11%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>46,53%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>33,87%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>34,83%</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FD0C07-98FA-48DA-96B2-B124CCF48FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BE1EA-257E-4749-9C96-77F19A24FFF9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3126,7 +3135,7 @@
         <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3150,13 @@
         <v>6155</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3156,13 +3165,13 @@
         <v>1970</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -3171,13 +3180,13 @@
         <v>8124</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3201,13 @@
         <v>50446</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -3207,13 +3216,13 @@
         <v>57450</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>163</v>
@@ -3222,13 +3231,13 @@
         <v>107896</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3252,13 @@
         <v>118623</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3258,13 +3267,13 @@
         <v>123730</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>360</v>
@@ -3273,13 +3282,13 @@
         <v>242352</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3303,13 @@
         <v>74388</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -3309,13 +3318,13 @@
         <v>70056</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -3324,13 +3333,13 @@
         <v>144443</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3398,13 +3407,13 @@
         <v>647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3419,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3428,13 +3437,13 @@
         <v>647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3458,13 @@
         <v>7277</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3464,13 +3473,13 @@
         <v>2700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3479,13 +3488,13 @@
         <v>9977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3509,13 @@
         <v>29077</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -3515,13 +3524,13 @@
         <v>27399</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -3530,13 +3539,13 @@
         <v>56476</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3560,13 @@
         <v>67849</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -3566,13 +3575,13 @@
         <v>53430</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -3581,13 +3590,13 @@
         <v>121278</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3611,13 @@
         <v>36665</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -3617,13 +3626,13 @@
         <v>44019</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3632,13 +3641,13 @@
         <v>80684</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,7 +3703,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3706,13 +3715,13 @@
         <v>667</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3721,13 +3730,13 @@
         <v>1272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3736,13 +3745,13 @@
         <v>1939</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3766,13 @@
         <v>5357</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3772,13 +3781,13 @@
         <v>4633</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3787,13 +3796,13 @@
         <v>9990</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3817,13 @@
         <v>38641</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -3823,13 +3832,13 @@
         <v>40441</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -3838,13 +3847,13 @@
         <v>79082</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3868,13 @@
         <v>101147</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -3874,13 +3883,13 @@
         <v>93743</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>287</v>
@@ -3889,13 +3898,13 @@
         <v>194890</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3919,13 @@
         <v>58926</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -3925,13 +3934,13 @@
         <v>54007</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3940,13 +3949,13 @@
         <v>112933</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4023,13 @@
         <v>3961</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4029,13 +4038,13 @@
         <v>1272</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -4044,13 +4053,13 @@
         <v>5233</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4074,13 @@
         <v>21453</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -4080,13 +4089,13 @@
         <v>10373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -4095,13 +4104,13 @@
         <v>31825</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4125,13 @@
         <v>142452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>213</v>
@@ -4131,13 +4140,13 @@
         <v>140905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>427</v>
@@ -4146,13 +4155,13 @@
         <v>283357</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4176,13 @@
         <v>343665</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>480</v>
@@ -4182,13 +4191,13 @@
         <v>324853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>994</v>
@@ -4197,13 +4206,13 @@
         <v>668519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4227,13 @@
         <v>208359</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>307</v>
@@ -4233,13 +4242,13 @@
         <v>203618</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>623</v>
@@ -4248,13 +4257,13 @@
         <v>411977</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4319,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C1E4B-9EE8-4276-93CC-E9BA09297C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6821C1-9013-4433-9C42-EB3B8B8C6E79}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,7 +4356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4454,13 +4463,13 @@
         <v>670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4475,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4484,13 +4493,13 @@
         <v>670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4514,13 @@
         <v>4449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4520,13 +4529,13 @@
         <v>4755</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4535,13 +4544,13 @@
         <v>9203</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4565,13 @@
         <v>33977</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>45</v>
@@ -4571,13 +4580,13 @@
         <v>29985</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -4586,13 +4595,13 @@
         <v>63962</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4616,13 @@
         <v>69556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -4622,13 +4631,13 @@
         <v>70532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
@@ -4637,13 +4646,13 @@
         <v>140088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4667,13 @@
         <v>36623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4673,13 +4682,13 @@
         <v>41489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>113</v>
@@ -4688,13 +4697,13 @@
         <v>78112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4745,7 @@
         <v>425</v>
       </c>
       <c r="N9" s="7">
-        <v>292036</v>
+        <v>292035</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>55</v>
@@ -4783,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4813,13 +4822,13 @@
         <v>1997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4828,13 +4837,13 @@
         <v>4826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -4843,13 +4852,13 @@
         <v>6823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4873,13 @@
         <v>61340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>66</v>
@@ -4879,13 +4888,13 @@
         <v>45833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -4894,13 +4903,13 @@
         <v>107173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4924,13 @@
         <v>131207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4930,13 +4939,13 @@
         <v>123530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>361</v>
@@ -4945,13 +4954,13 @@
         <v>254737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4975,13 @@
         <v>71500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -4981,13 +4990,13 @@
         <v>60576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -4996,13 +5005,13 @@
         <v>132077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5070,13 +5079,13 @@
         <v>1477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5091,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5100,13 +5109,13 @@
         <v>1477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5130,13 @@
         <v>3410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5136,13 +5145,13 @@
         <v>3513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5154,10 +5163,10 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5181,13 @@
         <v>36547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -5187,13 +5196,13 @@
         <v>40909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>109</v>
@@ -5202,13 +5211,13 @@
         <v>77456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5232,13 @@
         <v>85604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -5238,13 +5247,13 @@
         <v>76092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -5253,13 +5262,13 @@
         <v>161696</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5283,13 @@
         <v>31534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -5289,13 +5298,13 @@
         <v>36529</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -5304,13 +5313,13 @@
         <v>68063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5375,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5378,13 +5387,13 @@
         <v>1311</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5393,13 +5402,13 @@
         <v>768</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5408,13 +5417,13 @@
         <v>2079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5438,13 @@
         <v>5413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -5444,13 +5453,13 @@
         <v>2758</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5462,10 +5471,10 @@
         <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5489,13 @@
         <v>38939</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -5495,13 +5504,13 @@
         <v>42185</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M24" s="7">
         <v>117</v>
@@ -5510,13 +5519,13 @@
         <v>81124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5540,13 @@
         <v>84385</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -5546,13 +5555,13 @@
         <v>83476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>239</v>
@@ -5561,13 +5570,13 @@
         <v>167860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5591,13 @@
         <v>49908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5597,13 +5606,13 @@
         <v>41414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -5612,13 +5621,13 @@
         <v>91322</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5695,13 @@
         <v>3457</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5701,13 +5710,13 @@
         <v>768</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5716,13 +5725,13 @@
         <v>4225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5746,13 @@
         <v>15269</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -5752,13 +5761,13 @@
         <v>15852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -5767,13 +5776,13 @@
         <v>31120</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5797,13 @@
         <v>170804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>228</v>
@@ -5803,13 +5812,13 @@
         <v>158912</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>47</v>
       </c>
       <c r="M30" s="7">
         <v>468</v>
@@ -5818,13 +5827,13 @@
         <v>329716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5848,13 @@
         <v>370751</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H31" s="7">
         <v>505</v>
@@ -5854,13 +5863,13 @@
         <v>353631</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M31" s="7">
         <v>1033</v>
@@ -5869,13 +5878,13 @@
         <v>724382</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5899,13 @@
         <v>189565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -5905,13 +5914,13 @@
         <v>180008</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M32" s="7">
         <v>538</v>
@@ -5920,7 +5929,7 @@
         <v>369573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>403</v>
@@ -5982,7 +5991,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6002,7 +6011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D360EB-FAD6-4F26-9594-3FD3CB191D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DD3360-B654-4FBE-B8CF-1C6427B71973}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6126,13 +6135,13 @@
         <v>795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>406</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6147,7 +6156,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6156,13 +6165,13 @@
         <v>1465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6186,13 @@
         <v>3747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6192,10 +6201,10 @@
         <v>1692</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>413</v>
@@ -6210,10 +6219,10 @@
         <v>414</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6237,13 @@
         <v>10481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -6243,13 +6252,13 @@
         <v>13386</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -6258,13 +6267,13 @@
         <v>23867</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6288,13 @@
         <v>37593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -6294,13 +6303,13 @@
         <v>38333</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -6309,13 +6318,13 @@
         <v>75926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6339,13 @@
         <v>70780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -6345,13 +6354,13 @@
         <v>76848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M8" s="7">
         <v>229</v>
@@ -6360,13 +6369,13 @@
         <v>147628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6485,13 +6494,13 @@
         <v>2540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -6500,10 +6509,10 @@
         <v>4833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>444</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>445</v>
@@ -6515,13 +6524,13 @@
         <v>7373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6545,13 @@
         <v>29516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -6551,13 +6560,13 @@
         <v>21758</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -6566,13 +6575,13 @@
         <v>51274</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6596,13 @@
         <v>100834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>459</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -6641,10 +6650,10 @@
         <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -6653,13 +6662,13 @@
         <v>106102</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -6668,13 +6677,13 @@
         <v>230627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6742,13 +6751,13 @@
         <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6763,7 +6772,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6772,13 +6781,13 @@
         <v>790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6802,13 @@
         <v>3811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6808,13 +6817,13 @@
         <v>2747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6823,13 +6832,13 @@
         <v>6558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6853,13 @@
         <v>29322</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6859,13 +6868,13 @@
         <v>18037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -6874,13 +6883,13 @@
         <v>47359</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6904,13 @@
         <v>63912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -6910,13 +6919,13 @@
         <v>77384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -6925,13 +6934,13 @@
         <v>141296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6955,13 @@
         <v>90737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -6961,13 +6970,13 @@
         <v>90056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -6976,13 +6985,13 @@
         <v>180793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7047,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7056,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7071,7 +7080,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7080,13 +7089,13 @@
         <v>874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7110,13 @@
         <v>3816</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>509</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -7116,13 +7125,13 @@
         <v>2581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -7131,13 +7140,13 @@
         <v>6397</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7161,13 @@
         <v>19770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -7167,13 +7176,13 @@
         <v>23066</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -7182,13 +7191,13 @@
         <v>42836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7212,13 @@
         <v>71696</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>525</v>
       </c>
       <c r="H25" s="7">
         <v>104</v>
@@ -7218,13 +7227,13 @@
         <v>72403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>534</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
         <v>203</v>
@@ -7233,13 +7242,13 @@
         <v>144099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7263,13 @@
         <v>77359</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
@@ -7269,13 +7278,13 @@
         <v>73611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -7284,13 +7293,13 @@
         <v>150971</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7367,13 @@
         <v>1585</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7373,13 +7382,13 @@
         <v>1545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>66</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7388,13 +7397,13 @@
         <v>3130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7418,13 @@
         <v>13914</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -7424,13 +7433,13 @@
         <v>11854</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>64</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -7439,13 +7448,13 @@
         <v>25767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7469,13 @@
         <v>89089</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -7475,13 +7484,13 @@
         <v>76247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>241</v>
@@ -7490,13 +7499,13 @@
         <v>165336</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7520,13 @@
         <v>274036</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
         <v>398</v>
@@ -7526,13 +7535,13 @@
         <v>263510</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M31" s="7">
         <v>793</v>
@@ -7541,13 +7550,13 @@
         <v>537546</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7571,13 @@
         <v>363401</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>520</v>
@@ -7577,13 +7586,13 @@
         <v>346618</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M32" s="7">
         <v>1039</v>
@@ -7592,13 +7601,13 @@
         <v>710018</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,7 +7663,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7674,7 +7683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B8F45B-D6ED-4652-BAF1-F7895764CAEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC105602-B915-4BD2-B7C1-C1C70448B7F0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7691,7 +7700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7819,7 +7828,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7834,7 +7843,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7858,13 @@
         <v>3868</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>578</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>551</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7864,13 +7873,13 @@
         <v>1259</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>579</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -7879,13 +7888,13 @@
         <v>5127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7909,13 @@
         <v>5909</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -7915,13 +7924,13 @@
         <v>9315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>588</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -7930,13 +7939,13 @@
         <v>15224</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7960,13 @@
         <v>24059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -7966,13 +7975,13 @@
         <v>26073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -7981,13 +7990,13 @@
         <v>50132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8011,13 @@
         <v>24667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -8017,13 +8026,13 @@
         <v>20721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>606</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -8032,13 +8041,13 @@
         <v>45388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,7 +8121,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>611</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8127,7 +8136,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8142,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8166,13 @@
         <v>3010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -8175,10 +8184,10 @@
         <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -8187,13 +8196,13 @@
         <v>5619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>613</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>614</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8217,13 @@
         <v>36984</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -8223,13 +8232,13 @@
         <v>34873</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -8238,13 +8247,13 @@
         <v>71856</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8268,13 @@
         <v>78321</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -8274,13 +8283,13 @@
         <v>69522</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -8289,13 +8298,13 @@
         <v>147842</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>633</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>634</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8319,13 @@
         <v>56985</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -8325,13 +8334,13 @@
         <v>51761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>639</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -8340,13 +8349,13 @@
         <v>108745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,7 +8411,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8420,7 +8429,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>641</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8435,7 +8444,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>644</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8444,13 +8453,13 @@
         <v>993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8474,13 @@
         <v>5098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>643</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>647</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -8480,13 +8489,13 @@
         <v>5030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>650</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -8495,13 +8504,13 @@
         <v>10129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>648</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8525,13 @@
         <v>47611</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -8531,13 +8540,13 @@
         <v>40942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M18" s="7">
         <v>115</v>
@@ -8546,13 +8555,13 @@
         <v>88554</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8576,13 @@
         <v>85290</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>658</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>660</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -8582,13 +8591,13 @@
         <v>71641</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -8597,13 +8606,13 @@
         <v>156932</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8627,13 @@
         <v>64478</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -8633,10 +8642,10 @@
         <v>58338</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>672</v>
@@ -8710,7 +8719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8776,10 +8785,10 @@
         <v>677</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -8788,13 +8797,13 @@
         <v>7782</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>681</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -8803,13 +8812,13 @@
         <v>13058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8833,13 @@
         <v>65835</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>194</v>
+        <v>686</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>73</v>
@@ -8839,13 +8848,13 @@
         <v>49552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M24" s="7">
         <v>149</v>
@@ -8854,13 +8863,13 @@
         <v>115387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>690</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8884,13 @@
         <v>138337</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -8890,13 +8899,13 @@
         <v>112712</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>694</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>697</v>
       </c>
       <c r="M25" s="7">
         <v>312</v>
@@ -8905,13 +8914,13 @@
         <v>251049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8935,13 @@
         <v>79976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>698</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>699</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -8941,13 +8950,13 @@
         <v>90587</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -8956,13 +8965,13 @@
         <v>170563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,7 +9045,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9045,13 +9054,13 @@
         <v>993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>259</v>
+        <v>710</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -9060,13 +9069,13 @@
         <v>993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>612</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9090,13 @@
         <v>17252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>708</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -9096,13 +9105,13 @@
         <v>16681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>711</v>
+        <v>64</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -9111,13 +9120,13 @@
         <v>33933</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>715</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>712</v>
+        <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>713</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9141,13 @@
         <v>156340</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>209</v>
@@ -9147,13 +9156,13 @@
         <v>134682</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>489</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="M30" s="7">
         <v>413</v>
@@ -9162,13 +9171,13 @@
         <v>291022</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>94</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,13 +9192,13 @@
         <v>326007</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>665</v>
+        <v>724</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>42</v>
+        <v>725</v>
       </c>
       <c r="H31" s="7">
         <v>404</v>
@@ -9198,13 +9207,13 @@
         <v>279949</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>723</v>
+        <v>389</v>
       </c>
       <c r="M31" s="7">
         <v>843</v>
@@ -9213,13 +9222,13 @@
         <v>605955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,13 +9243,13 @@
         <v>226105</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H32" s="7">
         <v>308</v>
@@ -9249,13 +9258,13 @@
         <v>221408</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>618</v>
@@ -9264,13 +9273,13 @@
         <v>447513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>734</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9326,7 +9335,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
